--- a/Questions List.xlsx
+++ b/Questions List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\CRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{674A54E6-BB1F-4D7A-8B05-D989AED771C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40446942-CDA0-44DE-A5E3-790BB13CDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{15726504-38C8-4478-81ED-275D28299843}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
   <si>
-    <t>Question Number</t>
-  </si>
-  <si>
     <t>Question Name</t>
   </si>
   <si>
@@ -58,18 +55,6 @@
   </si>
   <si>
     <t>Status(himanshu)</t>
-  </si>
-  <si>
-    <t>Largest element in an array</t>
-  </si>
-  <si>
-    <t>gfg</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done </t>
   </si>
 </sst>
 </file>
@@ -139,11 +124,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}" name="questiontable" displayName="questiontable" ref="A4:G6" totalsRowShown="0">
-  <autoFilter ref="A4:G6" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}" name="questiontable" displayName="questiontable" ref="A4:F6" totalsRowShown="0">
+  <autoFilter ref="A4:F6" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{07A434AA-5ACD-4837-81A0-B4224D4C342C}" name="S.No. "/>
-    <tableColumn id="2" xr3:uid="{F3F4808E-F898-4624-A138-BE9CED97ED67}" name="Question Number"/>
     <tableColumn id="3" xr3:uid="{208A170E-B22D-4455-A32B-873C9189D603}" name="Question Name"/>
     <tableColumn id="4" xr3:uid="{B12AB8B0-506F-4A0F-82F4-A1D0E4EEFF71}" name="Platform"/>
     <tableColumn id="5" xr3:uid="{2B2A12BF-AE14-45EB-BF4F-A6B4576956A3}" name="Status(himanshu)"/>
@@ -451,29 +435,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA539E6-DF7D-45F7-9E6E-FC36CCB13DBA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="33.5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -484,38 +467,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Questions List.xlsx
+++ b/Questions List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\CRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40446942-CDA0-44DE-A5E3-790BB13CDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD364261-7C24-4169-A5E6-A73685995E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{15726504-38C8-4478-81ED-275D28299843}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -45,9 +45,6 @@
     <t>Platform</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>QUESTIONS TABLES FOR FUTURE REFERENCE</t>
   </si>
   <si>
@@ -55,13 +52,28 @@
   </si>
   <si>
     <t>Status(himanshu)</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Leetcode</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +84,14 @@
     <font>
       <sz val="26"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,15 +147,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}" name="questiontable" displayName="questiontable" ref="A4:F6" totalsRowShown="0">
-  <autoFilter ref="A4:F6" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}" name="questiontable" displayName="questiontable" ref="A4:E7" totalsRowShown="0">
+  <autoFilter ref="A4:E7" xr:uid="{51FE0EC4-5952-4771-BB09-34A2D096E940}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{07A434AA-5ACD-4837-81A0-B4224D4C342C}" name="S.No. "/>
     <tableColumn id="3" xr3:uid="{208A170E-B22D-4455-A32B-873C9189D603}" name="Question Name"/>
     <tableColumn id="4" xr3:uid="{B12AB8B0-506F-4A0F-82F4-A1D0E4EEFF71}" name="Platform"/>
     <tableColumn id="5" xr3:uid="{2B2A12BF-AE14-45EB-BF4F-A6B4576956A3}" name="Status(himanshu)"/>
     <tableColumn id="7" xr3:uid="{8B2308CB-0B69-4075-8BCF-94598FC1C421}" name="Status(isha)"/>
-    <tableColumn id="6" xr3:uid="{AD640DAC-51F8-4DCE-9E08-38EAD4846237}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA539E6-DF7D-45F7-9E6E-FC36CCB13DBA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,12 +473,12 @@
     <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="33.5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -467,20 +489,64 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{69A954BC-5E0C-4EA9-9D9A-BF92753B50DE}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/" xr:uid="{35B3B873-D914-4B15-A32A-4FE1CE6B526A}"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{5D29EAD4-6E5D-4DC2-87F3-0D798811DB9E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>